--- a/ErrLog/ErrorLog.xlsx
+++ b/ErrLog/ErrorLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srkim\OneDrive\문서\김영\SingleFramework\ErrLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC980FC-8A3E-4D0F-B467-1E59216B9267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF38CE6-4884-4556-90A4-F2FAC562AE81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6096" yWindow="384" windowWidth="11244" windowHeight="11976" xr2:uid="{DC36A2BE-E223-481F-A7EB-445E611172FA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>예외 타입</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>Cannot find the UI element corresponding to this selector: &lt;wnd app='excel.exe' cls='XLMAIN' title='*-??-??.xls  * - Excel' /&gt;&lt;wnd aaname='이름 상자' cls='ComboBox' /&gt;</t>
+  </si>
+  <si>
+    <t>System.NullReferenceException</t>
+  </si>
+  <si>
+    <t>Cannot create an L-value from the given expression with property 'set_Item' because the target object is null.</t>
+  </si>
+  <si>
+    <t>Invoke - 받은파일처리: Assign</t>
+  </si>
+  <si>
+    <t>Cannot find the UI element corresponding to this selector: &lt;wnd app='powerpnt.exe' cls='PPTFrameClass' title='2020-06-18.pptx - PowerPoint' /&gt;&lt;uia cls='MsoCommandBar' idx='1' /&gt;&lt;uia cls='NetUIOrderedGroup' name='홈' /&gt;&lt;uia cls='NetUIChunk' name='편집' /&gt;&lt;uia cls='NetUIRibbonButton' name='찾기...' /&gt;</t>
+  </si>
+  <si>
+    <t>Invoke - 받은파일처리: Click - 찾기</t>
   </si>
 </sst>
 </file>
@@ -465,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C477ED-F67A-453E-95C8-478C29AAB1C6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -641,6 +656,36 @@
       <c r="D11" s="1" t="str">
         <f>HYPERLINK("./ErrLog\PJT_RPA0000_022019.jpeg","./ErrLog\PJT_RPA0000_022019.jpeg")</f>
         <v>./ErrLog\PJT_RPA0000_022019.jpeg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>HYPERLINK("./ErrLog\PJT_RPA0000_090037.jpeg","./ErrLog\PJT_RPA0000_090037.jpeg")</f>
+        <v>./ErrLog\PJT_RPA0000_090037.jpeg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>HYPERLINK("./ErrLog\PJT_RPA0000_090422.jpeg","./ErrLog\PJT_RPA0000_090422.jpeg")</f>
+        <v>./ErrLog\PJT_RPA0000_090422.jpeg</v>
       </c>
     </row>
   </sheetData>
